--- a/medicine/Psychotrope/Douelle_(tonneau)/Douelle_(tonneau).xlsx
+++ b/medicine/Psychotrope/Douelle_(tonneau)/Douelle_(tonneau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une douelle, ou douve, est une pièce en bois de chêne qui forme avec d'autres la paroi des tonneaux.
 Une douelle de plus petite taille est aussi appelée douvelle.
@@ -512,7 +524,9 @@
           <t>Fabrication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une douelle se fabrique en travaillant un merrain par les opérations mécaniques de dolage, d'évidage, de fléchage et de jointage. Elles font environ 90 cm de long pour une largeur de 5 à 10 cm pour les tonneaux de contenance classique (228 L).
 </t>
@@ -543,7 +557,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois des douelles présente des pores, par lesquels le vin pénètre légèrement dans la douelle. À l'inverse, l'air passe dans le vin par ces mêmes pores, lui apportant une oxygénation modérée.
 Le vin infiltré entre les douelles, ou dans les douelles, peut augmenter les risques de contaminations microbiologiques, responsables de défauts du vin.
@@ -576,7 +592,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'assemblage des douelles côte à côte et leur cerclage permet l’étanchéité du tonneau. La pression exercée par les cercles est suffisante pour assurer l'étanchéité sans autre besoin de joint.
 Lorsque les fûts sont très usagés et que leur qualités œnologiques disparaissent, les douelles peuvent être utilisées comme éléments de décoration.
